--- a/techniqo/data_new_ticker/RITES.xlsx
+++ b/techniqo/data_new_ticker/RITES.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G545"/>
+  <dimension ref="A1:G547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19461,6 +19461,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>255.5</v>
+      </c>
+      <c r="C546" t="n">
+        <v>256.95</v>
+      </c>
+      <c r="D546" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="E546" t="n">
+        <v>255.95</v>
+      </c>
+      <c r="F546" t="n">
+        <v>574987</v>
+      </c>
+      <c r="G546" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>258.4</v>
+      </c>
+      <c r="C547" t="n">
+        <v>258.4</v>
+      </c>
+      <c r="D547" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="E547" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="F547" t="n">
+        <v>366458</v>
+      </c>
+      <c r="G547" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/RITES.xlsx
+++ b/techniqo/data_new_ticker/RITES.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G547"/>
+  <dimension ref="A1:G549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19511,6 +19511,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>248.4</v>
+      </c>
+      <c r="C548" t="n">
+        <v>254.5</v>
+      </c>
+      <c r="D548" t="n">
+        <v>248.4</v>
+      </c>
+      <c r="E548" t="n">
+        <v>253</v>
+      </c>
+      <c r="F548" t="n">
+        <v>268373</v>
+      </c>
+      <c r="G548" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>257</v>
+      </c>
+      <c r="C549" t="n">
+        <v>258.8</v>
+      </c>
+      <c r="D549" t="n">
+        <v>251.55</v>
+      </c>
+      <c r="E549" t="n">
+        <v>255.4</v>
+      </c>
+      <c r="F549" t="n">
+        <v>679656</v>
+      </c>
+      <c r="G549" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
